--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rade828c6055f45a7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R9e63e751afa341c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Ra0554e8abfeb4747"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R6e13290d64904618"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -249,7 +249,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2079335eefd9442e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad77216f4fd14485"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -383,6 +383,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb30e0f4cff564dca"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9408739fa6c74532"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Ra0554e8abfeb4747"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R6e13290d64904618"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rec83175831874bcf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R9f69e6766e934d6d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -126,6 +126,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Price</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Products'!$B$2:$B$6</c:f>
@@ -249,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad77216f4fd14485"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf942dd74365f4482"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -383,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9408739fa6c74532"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1dd4eba753214db3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rec83175831874bcf"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R9f69e6766e934d6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0f9839b95f594cc7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R820131e232204b60"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf942dd74365f4482"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R76f2fa707bfc4ada"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1dd4eba753214db3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05f5a7ef0e594e88"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R0f9839b95f594cc7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R820131e232204b60"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R2a6a7d52401f43b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Raa72bafac45e426d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R76f2fa707bfc4ada"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R53a536f00c6b4767"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05f5a7ef0e594e88"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R036322e4bc614725"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R2a6a7d52401f43b0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Raa72bafac45e426d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R4ad0648c0e114f9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R2d46b192043f499b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R53a536f00c6b4767"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc2a1ca9e80ff43c7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R036322e4bc614725"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R647c7091039e455f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R4ad0648c0e114f9f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R2d46b192043f499b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R297d92658b5f40e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Recf3c60993444c9e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc2a1ca9e80ff43c7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9b86838df4d4051"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R647c7091039e455f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re61792304b4641fd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="R297d92658b5f40e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="Recf3c60993444c9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rf07ccfcf153f4f9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R24be7fdb3258430f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9b86838df4d4051"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbc15979f98b94d0a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re61792304b4641fd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd00fef6aee484970"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/79_ClassToWorkbook.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Rf07ccfcf153f4f9e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R24be7fdb3258430f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Products" sheetId="1" r:id="Ra06b3b7325124365"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Chart" sheetId="2" r:id="R3f4a568981cf4a56"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -252,7 +252,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbc15979f98b94d0a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf614eaefb4af464a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -386,6 +386,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd00fef6aee484970"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbe844b95fedc4808"/>
 </x:worksheet>
 </file>